--- a/biology/Zoologie/Le_Courage_de_Lassie/Le_Courage_de_Lassie.xlsx
+++ b/biology/Zoologie/Le_Courage_de_Lassie/Le_Courage_de_Lassie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Courage de Lassie (Courage of Lassie) est un film américain réalisé par Fred M. Wilcox, sorti en 1946.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'un des fils de Lassie, Bill, s'est perdu dans les bois où il a grandi. La jeune Katie Merrick le recueille et Harry MacBain lui apprend à garder les moutons. Un camion renverse un jour le chien. Il est conduit dans une clinique vétérinaire mais personne ne sait son nom. Smitty, un militaire devient son maitre...
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Le Courage de Lassie
 Titre original : Courage of Lassie
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Elizabeth Taylor : Catherine Eleanor Merrick dite Kathie, la fille d'une fermière et maîtresse du chien Bill
 Frank Morgan : Harry MacBain, son voisin, un fermier sympathique
@@ -641,7 +659,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>C'est le troisième film de la série.</t>
         </is>
